--- a/student_timetables/Gabriel LING_CampA_timetable.xlsx
+++ b/student_timetables/Gabriel LING_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,11 +640,7 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
+      <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
     </row>
     <row r="10">
@@ -1054,9 +1050,10 @@
       <c r="G30" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="40">
     <mergeCell ref="E7:E14"/>
     <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B3:B6"/>
@@ -1074,7 +1071,6 @@
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="C11:C14"/>
@@ -1090,7 +1086,6 @@
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="G15:G19"/>
